--- a/Alexandru_Telcean/Lab6_BTB/Lab6.xlsx
+++ b/Alexandru_Telcean/Lab6_BTB/Lab6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOAC - Lab\SOAC_23-24\Alexandru_Telcean\Lab6_BTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A860C63-A945-492C-A72C-43AB78B6BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527ADD7E-BA1C-4E0C-B589-ED10C0DC16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11295" xr2:uid="{F60431D0-2106-4F2D-8B70-7AF8EA56816B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F60431D0-2106-4F2D-8B70-7AF8EA56816B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4011,7 +4011,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
